--- a/docs/orcamento_cronograma.xlsx
+++ b/docs/orcamento_cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\AgroTech\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8C6B7-6331-413F-B4AF-E052BBC91384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFE8352-F030-4E05-9749-8FE6368B3FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{211DDD06-3D26-4092-BDF8-45B9ACFDDFF6}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
   <si>
     <t>Valor/Hora</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Tarefa em pendência</t>
+  </si>
+  <si>
+    <t>Back - Criptografia das informações de Login</t>
+  </si>
+  <si>
+    <t>Back - Nivelamento do acesso aos recursos via Token</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -350,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -398,6 +407,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,20 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -911,10 +913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFC5B09-AF59-4288-8FB1-3ED32641577E}">
-  <dimension ref="B2:XFD31"/>
+  <dimension ref="B2:XFD33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,79 +928,79 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
     </row>
     <row r="3" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
     </row>
     <row r="4" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="14">
         <v>17</v>
       </c>
@@ -1091,8 +1093,8 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="17"/>
       <c r="F5" s="15"/>
       <c r="G5" s="17"/>
@@ -1127,8 +1129,8 @@
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="15"/>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1163,8 +1165,8 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="17"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -1198,8 +1200,8 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="17"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -1233,8 +1235,8 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
@@ -1268,8 +1270,8 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
@@ -1294,18 +1296,18 @@
     </row>
     <row r="11" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="29"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
@@ -1328,19 +1330,19 @@
     </row>
     <row r="12" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
@@ -1362,7 +1364,7 @@
     </row>
     <row r="13" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1374,8 +1376,8 @@
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -1396,7 +1398,7 @@
     </row>
     <row r="14" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1408,9 +1410,9 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -1430,7 +1432,7 @@
     </row>
     <row r="15" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -1443,9 +1445,9 @@
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
@@ -1464,7 +1466,7 @@
     </row>
     <row r="16" spans="2:31 16384:16384" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1478,10 +1480,10 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
@@ -1498,7 +1500,7 @@
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -1513,10 +1515,10 @@
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="29"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -1532,7 +1534,7 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -1548,9 +1550,9 @@
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="29"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -1566,7 +1568,7 @@
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1585,7 +1587,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
-      <c r="T19" s="29"/>
+      <c r="T19" s="23"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -1600,7 +1602,7 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1619,7 +1621,7 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="29"/>
+      <c r="T20" s="23"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -1634,7 +1636,7 @@
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1654,8 +1656,8 @@
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
@@ -1668,7 +1670,7 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1688,9 +1690,9 @@
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="U22" s="23"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="29"/>
+      <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -1702,7 +1704,7 @@
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1723,8 +1725,8 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="29"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
@@ -1736,7 +1738,7 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -1759,7 +1761,7 @@
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
-      <c r="X24" s="29"/>
+      <c r="X24" s="23"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
@@ -1770,7 +1772,7 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1793,8 +1795,8 @@
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="29"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
@@ -1804,7 +1806,7 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -1828,8 +1830,8 @@
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="29"/>
+      <c r="Y26" s="23"/>
+      <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
@@ -1838,7 +1840,7 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -1863,16 +1865,16 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -1898,14 +1900,82 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
       <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
+      <c r="AA28" s="23"/>
       <c r="AB28" s="15"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="O31" t="s">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1923,10 +1993,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C93B14-0D16-47DA-B05E-79AE65D16BFD}">
-  <dimension ref="B2:AE34"/>
+  <dimension ref="B2:AK36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,80 +2005,80 @@
     <col min="3" max="31" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-    </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="21" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B3" s="30"/>
+      <c r="C3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-    </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B4" s="31"/>
       <c r="C4" s="14">
         <v>17</v>
       </c>
@@ -2097,7 +2167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
@@ -2131,7 +2201,7 @@
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
@@ -2165,7 +2235,7 @@
       <c r="AD6" s="15"/>
       <c r="AE6" s="15"/>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
@@ -2199,7 +2269,7 @@
       <c r="AD7" s="15"/>
       <c r="AE7" s="15"/>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>35</v>
       </c>
@@ -2233,7 +2303,7 @@
       <c r="AD8" s="15"/>
       <c r="AE8" s="15"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
@@ -2243,12 +2313,12 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="28"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -2267,7 +2337,7 @@
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
@@ -2278,11 +2348,11 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="22"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -2301,24 +2371,24 @@
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="29"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
@@ -2335,24 +2405,24 @@
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="P12" s="22"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
@@ -2368,10 +2438,13 @@
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
-    </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AK12" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -2382,9 +2455,9 @@
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2403,9 +2476,9 @@
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -2416,10 +2489,10 @@
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
@@ -2437,9 +2510,9 @@
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -2451,10 +2524,10 @@
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
@@ -2471,9 +2544,9 @@
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -2486,11 +2559,11 @@
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
@@ -2507,7 +2580,7 @@
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -2521,11 +2594,11 @@
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
-      <c r="S17" s="29"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
@@ -2541,7 +2614,7 @@
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -2556,10 +2629,10 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="29"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
@@ -2575,7 +2648,7 @@
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -2593,8 +2666,8 @@
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="29"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -2609,7 +2682,7 @@
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -2627,8 +2700,8 @@
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="29"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
@@ -2643,7 +2716,7 @@
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -2662,9 +2735,9 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
@@ -2677,7 +2750,7 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -2696,10 +2769,10 @@
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="T22" s="23"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="W22" s="29"/>
+      <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
@@ -2711,7 +2784,7 @@
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -2731,9 +2804,9 @@
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="29"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
@@ -2745,7 +2818,7 @@
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -2767,8 +2840,8 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="29"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
@@ -2779,7 +2852,7 @@
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -2801,9 +2874,9 @@
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
+      <c r="W25" s="23"/>
       <c r="X25" s="15"/>
-      <c r="Y25" s="29"/>
+      <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
       <c r="AB25" s="15"/>
@@ -2813,7 +2886,7 @@
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -2836,9 +2909,9 @@
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
+      <c r="X26" s="23"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="29"/>
+      <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
@@ -2847,7 +2920,7 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -2871,17 +2944,17 @@
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
+      <c r="Y27" s="23"/>
       <c r="Z27" s="15"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -2906,102 +2979,115 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
+      <c r="Z28" s="23"/>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="31"/>
+      <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="31"/>
+      <c r="B30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="15"/>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="35"/>
+      <c r="B31" s="16"/>
+      <c r="H31" s="25"/>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="20"/>
+        <v>46</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="26"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="20"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="26" t="s">
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C36" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="4">
